--- a/excel_sheets/Employees_Set_Schedule.xlsx
+++ b/excel_sheets/Employees_Set_Schedule.xlsx
@@ -15,8 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,6 +36,12 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -56,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,11 +87,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -114,6 +135,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +549,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -527,10 +565,11 @@
     <col width="14" customWidth="1" style="2" min="6" max="6"/>
     <col width="14" customWidth="1" style="6" min="7" max="7"/>
     <col width="14" customWidth="1" style="2" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="18" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -540,7 +579,7 @@
           <t>Sun</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
@@ -550,7 +589,7 @@
           <t>Tue</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
@@ -560,14 +599,19 @@
           <t>Thu</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>Sat</t>
+        </is>
+      </c>
+      <c r="I1" s="17" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
@@ -603,7 +647,12 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr"/>
+      <c r="H2" s="14" t="inlineStr"/>
+      <c r="I2" s="18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -629,10 +678,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="H3" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -663,7 +715,10 @@
       </c>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="5" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="H4" s="14" t="n"/>
+      <c r="I4" s="20" t="n">
+        <v>45802</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
@@ -681,7 +736,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -715,7 +770,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
+      <c r="H6" s="14" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="inlineStr">
@@ -730,18 +785,18 @@
       </c>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" s="15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -756,7 +811,7 @@
       <c r="B8" s="8" t="n"/>
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -766,12 +821,12 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" s="15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -780,28 +835,28 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>Rustin Strachan</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n"/>
+          <t>Robert Miller</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E9" s="8" t="n"/>
+      <c r="E9" s="5" t="n"/>
       <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G9" s="8" t="n"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -810,10 +865,14 @@
     <row r="10">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>Robert Miller</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n"/>
+          <t>Avery Nordgren</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -825,173 +884,169 @@
         </is>
       </c>
       <c r="E10" s="5" t="n"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="F10" s="8" t="n"/>
       <c r="G10" s="5" t="n"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>Avery Nordgren</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
-      <c r="H11" s="8" t="n"/>
+          <t>Corene Hawk</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="18" t="n"/>
+      <c r="H11" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>Corene Hawk</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="n"/>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="n"/>
-      <c r="G12" s="10" t="n"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Kim Harward</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>Kim Harward</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n"/>
+          <t>Matthew Darden</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n"/>
+      <c r="E13" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>Matthew Darden</t>
+          <t>Mason Collins</t>
         </is>
       </c>
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n"/>
       <c r="F14" s="3" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="G14" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" s="14" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="inlineStr">
         <is>
-          <t>Mason Collins</t>
+          <t>Nathan Switzer</t>
         </is>
       </c>
       <c r="B15" s="3" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n"/>
       <c r="E15" s="5" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Nathan Switzer</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n"/>
+          <t>Aaron Malloch</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H16" s="10" t="inlineStr">
+      <c r="E16" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1000,283 +1055,279 @@
     <row r="17">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>Aaron Malloch</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Jarris Kirkham</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Jarris Kirkham</t>
+          <t>Aaron Henriksen</t>
         </is>
       </c>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="5" t="n"/>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" s="14" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>Aaron Henriksen</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n"/>
+          <t>Colby Moon</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D19" s="3" t="n"/>
       <c r="E19" s="5" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n"/>
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Colby Moon</t>
-        </is>
-      </c>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Cristian Valenzuela</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr"/>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr"/>
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>new note</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="inlineStr">
         <is>
-          <t>Cristian Valenzuela</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="3" t="n"/>
+          <t>Ben Berryhill</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E21" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G21" s="5" t="n"/>
-      <c r="H21" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="18" t="n">
+        <v>2319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Ben Berryhill</t>
-        </is>
-      </c>
-      <c r="B22" s="10" t="inlineStr"/>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr"/>
+          <t>Ricardo Murrietta</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="14" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>Ricardo Murrietta</t>
+          <t>Dean Mecham</t>
         </is>
       </c>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="5" t="n"/>
-      <c r="D23" s="3" t="n"/>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="E23" s="5" t="n"/>
       <c r="F23" s="3" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="3" t="n"/>
+      <c r="G23" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" s="14" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Dean Mecham</t>
+          <t>Shawn Cross</t>
         </is>
       </c>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="5" t="n"/>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D24" s="3" t="n"/>
       <c r="E24" s="5" t="n"/>
       <c r="F24" s="3" t="n"/>
-      <c r="G24" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="14" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="9" t="inlineStr">
         <is>
-          <t>Shawn Cross</t>
+          <t>Tawai Finlayson</t>
         </is>
       </c>
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="5" t="n"/>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="5" t="n"/>
-      <c r="F25" s="3" t="n"/>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G25" s="5" t="n"/>
-      <c r="H25" s="3" t="n"/>
+      <c r="H25" s="14" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Tawai Finlayson</t>
+          <t>Kylie Searle</t>
         </is>
       </c>
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C26" s="5" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="5" t="n"/>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E26" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n"/>
       <c r="G26" s="5" t="n"/>
-      <c r="H26" s="3" t="n"/>
+      <c r="H26" s="14" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="9" t="inlineStr">
         <is>
-          <t>Kylie Searle</t>
+          <t>Michael Dicenzo</t>
         </is>
       </c>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="E27" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="5" t="n"/>
-      <c r="H27" s="3" t="n"/>
+      <c r="H27" s="14" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Michael Dicenzo</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n"/>
+          <t>Philip Caputo</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C28" s="5" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E28" s="5" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="5" t="n"/>
-      <c r="H28" s="3" t="n"/>
+      <c r="H28" s="14" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="9" t="inlineStr">
         <is>
-          <t>Philip Caputo</t>
+          <t>Taygan Fairholm</t>
         </is>
       </c>
       <c r="B29" s="10" t="inlineStr">
@@ -1284,17 +1335,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="5" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="3" t="n"/>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E29" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Taygan Fairholm</t>
+          <t>Rebe Flores</t>
         </is>
       </c>
       <c r="B30" s="10" t="inlineStr">
@@ -1312,7 +1387,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E30" s="10" t="inlineStr">
+      <c r="E30" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1322,12 +1397,12 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G30" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H30" s="10" t="inlineStr">
+      <c r="G30" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1336,95 +1411,95 @@
     <row r="31">
       <c r="A31" s="9" t="inlineStr">
         <is>
-          <t>Rebe Flores</t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H31" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Daniela Petersen</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="5" t="n"/>
+      <c r="H31" s="14" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Daniela Petersen</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="5" t="n"/>
+          <t>Kristen Martinez</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="5" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="5" t="n"/>
-      <c r="H32" s="3" t="n"/>
+      <c r="H32" s="14" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="9" t="inlineStr">
         <is>
-          <t>Kristen Martinez</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="5" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="5" t="n"/>
-      <c r="H33" s="3" t="n"/>
+          <t>Jerin Palmer</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Jerin Palmer</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="5" t="n"/>
+          <t>Nathaniel Spice</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D34" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
+      <c r="E34" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1434,12 +1509,12 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G34" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H34" s="10" t="inlineStr">
+      <c r="G34" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1448,40 +1523,20 @@
     <row r="35">
       <c r="A35" s="9" t="inlineStr">
         <is>
-          <t>Nathaniel Spice</t>
-        </is>
-      </c>
-      <c r="B35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H35" s="10" t="inlineStr">
+          <t>Clarissa Dopp</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="5" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H35" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1490,29 +1545,29 @@
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Clarissa Dopp</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="5" t="n"/>
+          <t>John Dean</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D36" s="3" t="n"/>
       <c r="E36" s="5" t="n"/>
       <c r="F36" s="3" t="n"/>
-      <c r="G36" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H36" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="14" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="9" t="inlineStr">
         <is>
-          <t>John Dean</t>
+          <t>Weston Hamilton</t>
         </is>
       </c>
       <c r="B37" s="10" t="inlineStr">
@@ -1529,78 +1584,74 @@
       <c r="E37" s="5" t="n"/>
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="5" t="n"/>
-      <c r="H37" s="3" t="n"/>
+      <c r="H37" s="14" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>Weston Hamilton</t>
-        </is>
-      </c>
-      <c r="B38" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>Jeremy Ficklin-Zaccaro</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="5" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="5" t="n"/>
+      <c r="E38" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="5" t="n"/>
-      <c r="H38" s="3" t="n"/>
+      <c r="H38" s="14" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>Jeremy Ficklin-Zaccaro</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n"/>
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Tyler Freeze</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C39" s="5" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="10" t="inlineStr">
+      <c r="E39" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="5" t="n"/>
-      <c r="H39" s="3" t="n"/>
+      <c r="H39" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Tyler Freeze</t>
-        </is>
-      </c>
-      <c r="B40" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Michael Dean</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n"/>
       <c r="C40" s="5" t="n"/>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n"/>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="5" t="n"/>
-      <c r="H40" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H40" s="14" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>Michael Dean</t>
+          <t>Lachlan McClain</t>
         </is>
       </c>
       <c r="B41" s="3" t="n"/>
@@ -1610,97 +1661,109 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E41" s="5" t="n"/>
-      <c r="F41" s="3" t="n"/>
-      <c r="G41" s="5" t="n"/>
-      <c r="H41" s="3" t="n"/>
+      <c r="E41" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" s="14" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Lachlan McClain</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="n"/>
-      <c r="C42" s="5" t="n"/>
-      <c r="D42" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E42" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G42" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n"/>
+          <t>Robert Prudhomme</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="18" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="18" t="n"/>
+      <c r="H42" s="16" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="inlineStr">
         <is>
-          <t>Robert Prudhomme</t>
-        </is>
-      </c>
-      <c r="B43" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D43" s="10" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="10" t="n"/>
-      <c r="G43" s="10" t="n"/>
-      <c r="H43" s="10" t="n"/>
+          <t>Timothy Tomlin</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="n"/>
+      <c r="H43" s="14" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Timothy Tomlin</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Tyler Walker</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="3" t="n"/>
+      <c r="E44" s="5" t="n"/>
       <c r="F44" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G44" s="5" t="n"/>
-      <c r="H44" s="3" t="n"/>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H44" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="inlineStr">
         <is>
-          <t>Tyler Walker</t>
+          <t>Houston Griffith</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
@@ -1708,132 +1771,132 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C45" s="5" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="5" t="n"/>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G45" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="5" t="n"/>
+      <c r="H45" s="14" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Houston Griffith</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C46" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E46" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Jerrin Foster</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="5" t="n"/>
       <c r="F46" s="3" t="n"/>
-      <c r="G46" s="5" t="n"/>
-      <c r="H46" s="3" t="n"/>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="inlineStr">
         <is>
-          <t>Jerrin Foster</t>
+          <t>Connor Lund</t>
         </is>
       </c>
       <c r="B47" s="3" t="n"/>
-      <c r="C47" s="5" t="n"/>
-      <c r="D47" s="3" t="n"/>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="E47" s="5" t="n"/>
-      <c r="F47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H47" s="14" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Connor Lund</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E48" s="5" t="n"/>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Roberto Guevara</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n"/>
       <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H48" s="3" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>Roberto Guevara</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C49" s="5" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n"/>
-      <c r="G49" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H49" s="8" t="inlineStr">
+          <t>Seth Heilesen</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n"/>
+      <c r="C49" s="8" t="n"/>
+      <c r="D49" s="8" t="n"/>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" s="15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1842,28 +1905,28 @@
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Seth Heilesen</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="n"/>
+          <t>Arianna Jenkins</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C50" s="8" t="n"/>
-      <c r="D50" s="8" t="n"/>
-      <c r="E50" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D50" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n"/>
       <c r="F50" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H50" s="8" t="inlineStr">
+      <c r="G50" s="5" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1872,7 +1935,7 @@
     <row r="51">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>Arianna Jenkins</t>
+          <t>Jasmine Girard-Posey</t>
         </is>
       </c>
       <c r="B51" s="8" t="inlineStr">
@@ -1880,76 +1943,72 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C51" s="8" t="n"/>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E51" s="8" t="n"/>
-      <c r="F51" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G51" s="8" t="n"/>
-      <c r="H51" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E51" s="5" t="n"/>
+      <c r="F51" s="8" t="n"/>
+      <c r="G51" s="5" t="n"/>
+      <c r="H51" s="15" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Jasmine Girard-Posey</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E52" s="8" t="n"/>
-      <c r="F52" s="8" t="n"/>
-      <c r="G52" s="8" t="n"/>
-      <c r="H52" s="8" t="n"/>
+          <t>Matt Nguyen</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n"/>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E52" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n"/>
+      <c r="G52" s="18" t="n"/>
+      <c r="H52" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Matt Nguyen</t>
-        </is>
-      </c>
-      <c r="B53" s="10" t="n"/>
+          <t>AJ Dahl</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n"/>
       <c r="C53" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D53" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E53" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F53" s="10" t="n"/>
-      <c r="G53" s="10" t="n"/>
-      <c r="H53" s="10" t="inlineStr">
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="5" t="n"/>
+      <c r="H53" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1958,33 +2017,29 @@
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Devin Butler</t>
-        </is>
-      </c>
-      <c r="B54" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Nancy Girard</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n"/>
       <c r="C54" s="5" t="n"/>
-      <c r="D54" s="3" t="n"/>
+      <c r="D54" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="E54" s="5" t="n"/>
-      <c r="F54" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G54" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" s="14" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="9" t="inlineStr">
         <is>
-          <t>AJ Dahl</t>
+          <t>Angela Harker</t>
         </is>
       </c>
       <c r="B55" s="3" t="n"/>
@@ -1994,14 +2049,18 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="5" t="n"/>
-      <c r="H55" s="10" t="inlineStr">
+      <c r="E55" s="5" t="n"/>
+      <c r="F55" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G55" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2010,197 +2069,178 @@
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Nancy Girard</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="n"/>
-      <c r="C56" s="5" t="n"/>
-      <c r="D56" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="n"/>
-      <c r="F56" s="3" t="n"/>
-      <c r="G56" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H56" s="3" t="n"/>
+          <t>Aaron Parker</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr"/>
+      <c r="E56" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="5" t="inlineStr"/>
+      <c r="H56" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="9" t="inlineStr">
         <is>
-          <t>Angela Harker</t>
+          <t>Alex Lopez</t>
         </is>
       </c>
       <c r="B57" s="3" t="n"/>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="5" t="n"/>
+      <c r="C57" s="5" t="n"/>
+      <c r="D57" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E57" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F57" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G57" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H57" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="G57" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H57" s="14" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Aaron Parker</t>
-        </is>
-      </c>
-      <c r="B58" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Taylor Ogaard</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n"/>
       <c r="C58" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D58" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="n"/>
       <c r="F58" s="3" t="n"/>
-      <c r="G58" s="5" t="n"/>
-      <c r="H58" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="G58" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H58" s="14" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Alex Lopez</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n"/>
-      <c r="C59" s="5" t="n"/>
-      <c r="D59" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E59" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Jake Belt</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C59" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="5" t="n"/>
       <c r="F59" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G59" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="n"/>
+      <c r="G59" s="5" t="n"/>
+      <c r="H59" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Taylor Ogaard</t>
+          <t>Alvin Villagrana</t>
         </is>
       </c>
       <c r="B60" s="3" t="n"/>
-      <c r="C60" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D60" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="n"/>
+      <c r="C60" s="5" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="n"/>
-      <c r="G60" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H60" s="3" t="n"/>
+      <c r="G60" s="5" t="n"/>
+      <c r="H60" s="14" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="9" t="inlineStr">
         <is>
-          <t>Jake Belt</t>
-        </is>
-      </c>
-      <c r="B61" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C61" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Ericka McDaniel</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="5" t="n"/>
       <c r="D61" s="3" t="n"/>
-      <c r="E61" s="5" t="n"/>
-      <c r="F61" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E61" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n"/>
       <c r="G61" s="5" t="n"/>
-      <c r="H61" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H61" s="14" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Tyler Mautz</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="n"/>
+          <t>David Pleasant</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C62" s="5" t="n"/>
-      <c r="D62" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D62" s="3" t="n"/>
       <c r="E62" s="5" t="n"/>
       <c r="F62" s="3" t="n"/>
       <c r="G62" s="5" t="n"/>
-      <c r="H62" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="H62" s="14" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="9" t="inlineStr">
         <is>
-          <t>Kirsten Cherry</t>
+          <t>Marcus Gibby</t>
         </is>
       </c>
       <c r="B63" s="10" t="inlineStr">
@@ -2208,9 +2248,17 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C63" s="5" t="n"/>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="10" t="inlineStr">
+      <c r="C63" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E63" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2220,121 +2268,197 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G63" s="5" t="n"/>
-      <c r="H63" s="3" t="n"/>
+      <c r="G63" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Travis Moffat</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="n"/>
-      <c r="C64" s="5" t="n"/>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="5" t="n"/>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="5" t="n"/>
-      <c r="H64" s="3" t="n"/>
+          <t>Jayson Burke</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C64" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E64" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H64" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="inlineStr">
         <is>
-          <t>Evan Doman</t>
+          <t>Sarin Thorn</t>
         </is>
       </c>
       <c r="B65" s="3" t="n"/>
       <c r="C65" s="5" t="n"/>
-      <c r="D65" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D65" s="3" t="n"/>
       <c r="E65" s="5" t="n"/>
       <c r="F65" s="3" t="n"/>
-      <c r="G65" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="n"/>
+      <c r="G65" s="5" t="n"/>
+      <c r="H65" s="14" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Nathan Dean</t>
+          <t>Tyler Pasa</t>
         </is>
       </c>
       <c r="B66" s="3" t="n"/>
       <c r="C66" s="5" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="5" t="n"/>
-      <c r="F66" s="3" t="n"/>
-      <c r="G66" s="5" t="n"/>
-      <c r="H66" s="3" t="n"/>
+      <c r="D66" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E66" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G66" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H66" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Ethan McCray</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="n"/>
+          <t>Robin Larsen</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="5" t="n"/>
+      <c r="D67" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E67" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F67" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G67" s="5" t="n"/>
-      <c r="H67" s="3" t="n"/>
+      <c r="G67" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Alvin Villagrana</t>
+          <t>Cortez Gee</t>
         </is>
       </c>
       <c r="B68" s="3" t="n"/>
       <c r="C68" s="5" t="n"/>
       <c r="D68" s="3" t="n"/>
-      <c r="E68" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E68" s="5" t="n"/>
       <c r="F68" s="3" t="n"/>
-      <c r="G68" s="5" t="n"/>
-      <c r="H68" s="3" t="n"/>
+      <c r="G68" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H68" s="16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="inlineStr">
         <is>
-          <t>Ericka McDaniel</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="n"/>
-      <c r="C69" s="5" t="n"/>
+          <t>Casey Christensen</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C69" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D69" s="3" t="n"/>
-      <c r="E69" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="E69" s="5" t="n"/>
       <c r="F69" s="3" t="n"/>
       <c r="G69" s="5" t="n"/>
-      <c r="H69" s="3" t="n"/>
+      <c r="H69" s="14" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>David Pleasant</t>
+          <t>Alescia Dahl</t>
         </is>
       </c>
       <c r="B70" s="10" t="inlineStr">
@@ -2342,59 +2466,39 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C70" s="5" t="n"/>
+      <c r="C70" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="D70" s="3" t="n"/>
       <c r="E70" s="5" t="n"/>
       <c r="F70" s="3" t="n"/>
       <c r="G70" s="5" t="n"/>
-      <c r="H70" s="3" t="n"/>
+      <c r="H70" s="14" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Marcus Gibby</t>
-        </is>
-      </c>
-      <c r="B71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Trever Schutte</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="5" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="5" t="n"/>
+      <c r="H71" s="14" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Jayson Burke</t>
+          <t>Karri Pearson</t>
         </is>
       </c>
       <c r="B72" s="10" t="inlineStr">
@@ -2402,32 +2506,16 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C72" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D72" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E72" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G72" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H72" s="10" t="inlineStr">
+      <c r="C72" s="5" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n"/>
+      <c r="G72" s="5" t="n"/>
+      <c r="H72" s="16" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2436,21 +2524,25 @@
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Sarin Thorn</t>
+          <t>Ryan Clyde</t>
         </is>
       </c>
       <c r="B73" s="3" t="n"/>
       <c r="C73" s="5" t="n"/>
-      <c r="D73" s="3" t="n"/>
+      <c r="D73" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="E73" s="5" t="n"/>
       <c r="F73" s="3" t="n"/>
       <c r="G73" s="5" t="n"/>
-      <c r="H73" s="3" t="n"/>
+      <c r="H73" s="14" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Tyler Pasa</t>
+          <t>Dianne McCann</t>
         </is>
       </c>
       <c r="B74" s="3" t="n"/>
@@ -2460,7 +2552,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E74" s="10" t="inlineStr">
+      <c r="E74" s="18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2470,21 +2562,17 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G74" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H74" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="G74" s="18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H74" s="14" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Robin Larsen</t>
+          <t>Diana Isla Meneses</t>
         </is>
       </c>
       <c r="B75" s="10" t="inlineStr">
@@ -2497,250 +2585,181 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="D75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="D75" s="10" t="n"/>
+      <c r="E75" s="18" t="n"/>
+      <c r="F75" s="10" t="n"/>
+      <c r="G75" s="18" t="n"/>
+      <c r="H75" s="16" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Cortez Gee</t>
+          <t>Lacey Burraston</t>
         </is>
       </c>
       <c r="B76" s="3" t="n"/>
-      <c r="C76" s="5" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="5" t="n"/>
-      <c r="F76" s="3" t="n"/>
-      <c r="G76" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H76" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n"/>
+      <c r="H76" s="14" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Casey Christensen</t>
-        </is>
-      </c>
-      <c r="B77" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C77" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="5" t="n"/>
       <c r="D77" s="3" t="n"/>
       <c r="E77" s="5" t="n"/>
       <c r="F77" s="3" t="n"/>
       <c r="G77" s="5" t="n"/>
-      <c r="H77" s="3" t="n"/>
+      <c r="H77" s="14" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Alescia Dahl</t>
-        </is>
-      </c>
-      <c r="B78" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C78" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="5" t="n"/>
-      <c r="F78" s="3" t="n"/>
-      <c r="G78" s="5" t="n"/>
-      <c r="H78" s="3" t="n"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TEST 1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Trever Schutte</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="n"/>
-      <c r="C79" s="5" t="n"/>
-      <c r="D79" s="3" t="n"/>
-      <c r="E79" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F79" s="3" t="n"/>
-      <c r="G79" s="5" t="n"/>
-      <c r="H79" s="3" t="n"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Evan Doman</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>Karri Pearson</t>
-        </is>
-      </c>
-      <c r="B80" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C80" s="5" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="n"/>
-      <c r="G80" s="5" t="n"/>
-      <c r="H80" s="10" t="inlineStr">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Kirsten Cherry</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Ryan Clyde</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="n"/>
-      <c r="C81" s="5" t="n"/>
-      <c r="D81" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E81" s="5" t="n"/>
-      <c r="F81" s="3" t="n"/>
-      <c r="G81" s="5" t="n"/>
-      <c r="H81" s="3" t="n"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Devin Butler</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="inlineStr">
-        <is>
-          <t>Dianne McCann</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="n"/>
-      <c r="C82" s="5" t="n"/>
-      <c r="D82" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E82" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G82" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H82" s="3" t="n"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Travis Moffat</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>Diana Isla Meneses</t>
-        </is>
-      </c>
-      <c r="B83" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C83" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D83" s="10" t="n"/>
-      <c r="E83" s="10" t="n"/>
-      <c r="F83" s="10" t="n"/>
-      <c r="G83" s="10" t="n"/>
-      <c r="H83" s="10" t="n"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tyler Mautz</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>Lacey Burraston</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="n"/>
-      <c r="C84" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E84" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G84" s="5" t="n"/>
-      <c r="H84" s="3" t="n"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nathan Dean</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="B85" s="3" t="n"/>
-      <c r="C85" s="5" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="5" t="n"/>
-      <c r="F85" s="3" t="n"/>
-      <c r="G85" s="5" t="n"/>
-      <c r="H85" s="3" t="n"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ethan McCray</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2772,10 +2791,10 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TEST 2</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
+          <t>Test note</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2785,7 +2804,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2794,7 +2813,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TEST 1</t>
+          <t>Rustin Strachan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2802,12 +2821,39 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TEST 2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
